--- a/obras.xlsx
+++ b/obras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34649\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\Impresionismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDC73C-468A-4655-A4F3-90DD6104F4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48428753-550E-43AA-96FC-75E0A3C5E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7699,7 +7699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7728,6 +7728,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7749,10 +7755,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8035,8 +8042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="A683" sqref="A683"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9833,7 +9840,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -9843,6 +9850,7 @@
       <c r="C70" t="s">
         <v>203</v>
       </c>
+      <c r="D70" s="3"/>
       <c r="E70" t="s">
         <v>204</v>
       </c>

--- a/obras.xlsx
+++ b/obras.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\Impresionismo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Sociocav\Trabajo\Proyectos\Coincidencias\Culture\Impresionismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48428753-550E-43AA-96FC-75E0A3C5E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985602A-14CE-4910-B99E-A0468B2C4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8042,23 +8042,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8084,7 +8082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -8110,7 +8108,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8136,7 +8134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8162,7 +8160,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8188,7 +8186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8214,7 +8212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -8240,7 +8238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -8266,7 +8264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -8292,7 +8290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -8318,7 +8316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8367,7 +8365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -8419,7 +8417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -8445,7 +8443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -8471,7 +8469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -8523,7 +8521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -8575,7 +8573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -8601,7 +8599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8627,7 +8625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -8679,7 +8677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -8731,7 +8729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -8757,7 +8755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -8783,7 +8781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -8835,7 +8833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -8858,7 +8856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -8884,7 +8882,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -8910,7 +8908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8936,7 +8934,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -8962,7 +8960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8988,7 +8986,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -9014,7 +9012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -9040,7 +9038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -9066,7 +9064,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -9092,7 +9090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -9118,7 +9116,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -9170,7 +9168,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -9196,7 +9194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -9222,7 +9220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -9248,7 +9246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -9274,7 +9272,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -9326,7 +9324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -9352,7 +9350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -9378,7 +9376,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -9404,7 +9402,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -9430,7 +9428,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -9482,7 +9480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -9508,7 +9506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -9534,7 +9532,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -9560,7 +9558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -9586,7 +9584,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -9612,7 +9610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -9638,7 +9636,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -9690,7 +9688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -9742,7 +9740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -9768,7 +9766,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -9794,7 +9792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -9840,7 +9838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -9858,7 +9856,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -9884,7 +9882,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -9910,7 +9908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -9936,7 +9934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -9959,7 +9957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -9985,7 +9983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -10011,7 +10009,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -10037,7 +10035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -10063,7 +10061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -10089,7 +10087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -10115,7 +10113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>234</v>
       </c>
@@ -10141,7 +10139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>237</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -10193,7 +10191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -10219,7 +10217,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -10245,7 +10243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -10271,7 +10269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -10297,7 +10295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -10323,7 +10321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -10349,7 +10347,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -10375,7 +10373,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>246</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -10427,7 +10425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>234</v>
       </c>
@@ -10453,7 +10451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>234</v>
       </c>
@@ -10479,7 +10477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>234</v>
       </c>
@@ -10505,7 +10503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -10531,7 +10529,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>234</v>
       </c>
@@ -10557,7 +10555,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>234</v>
       </c>
@@ -10580,7 +10578,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>167</v>
       </c>
@@ -10606,7 +10604,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -10632,7 +10630,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>237</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>237</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>167</v>
       </c>
@@ -10710,7 +10708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>246</v>
       </c>
@@ -10736,7 +10734,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -10759,7 +10757,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -10782,7 +10780,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -10805,7 +10803,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>167</v>
       </c>
@@ -10828,7 +10826,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -10854,7 +10852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -10880,7 +10878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -10906,7 +10904,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -10932,7 +10930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -10958,7 +10956,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -10984,7 +10982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -11010,7 +11008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -11036,7 +11034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -11062,7 +11060,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>335</v>
       </c>
@@ -11085,7 +11083,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -11111,7 +11109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -11137,7 +11135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -11163,7 +11161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>237</v>
       </c>
@@ -11189,7 +11187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -11215,7 +11213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -11241,7 +11239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -11264,7 +11262,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -11290,7 +11288,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>354</v>
       </c>
@@ -11316,7 +11314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>354</v>
       </c>
@@ -11342,7 +11340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>167</v>
       </c>
@@ -11368,7 +11366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -11446,7 +11444,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -11472,7 +11470,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>373</v>
       </c>
@@ -11498,7 +11496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>376</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>376</v>
       </c>
@@ -11550,7 +11548,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>383</v>
       </c>
@@ -11573,7 +11571,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -11599,7 +11597,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -11651,7 +11649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>98</v>
       </c>
@@ -11677,7 +11675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -11703,7 +11701,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>234</v>
       </c>
@@ -11755,7 +11753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -11781,7 +11779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -11798,7 +11796,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -11824,7 +11822,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -11850,7 +11848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -11876,7 +11874,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -11902,7 +11900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -11928,7 +11926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -11954,7 +11952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -11980,7 +11978,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -12006,7 +12004,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -12029,7 +12027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>422</v>
       </c>
@@ -12055,7 +12053,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>425</v>
       </c>
@@ -12081,7 +12079,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -12107,7 +12105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -12133,7 +12131,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -12159,7 +12157,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>234</v>
       </c>
@@ -12208,7 +12206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>234</v>
       </c>
@@ -12234,7 +12232,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>98</v>
       </c>
@@ -12257,7 +12255,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -12283,7 +12281,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -12309,7 +12307,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -12335,7 +12333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>98</v>
       </c>
@@ -12361,7 +12359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>376</v>
       </c>
@@ -12387,7 +12385,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -12413,7 +12411,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>462</v>
       </c>
@@ -12439,7 +12437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>465</v>
       </c>
@@ -12465,7 +12463,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>470</v>
       </c>
@@ -12491,7 +12489,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>373</v>
       </c>
@@ -12517,7 +12515,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -12543,7 +12541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -12569,7 +12567,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -12595,7 +12593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -12621,7 +12619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -12647,7 +12645,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>234</v>
       </c>
@@ -12673,7 +12671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>167</v>
       </c>
@@ -12699,7 +12697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -12725,7 +12723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -12751,7 +12749,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>167</v>
       </c>
@@ -12777,7 +12775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -12803,7 +12801,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -12829,7 +12827,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>98</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>98</v>
       </c>
@@ -12881,7 +12879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>98</v>
       </c>
@@ -12907,7 +12905,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -12930,7 +12928,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -12956,7 +12954,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>373</v>
       </c>
@@ -12982,7 +12980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>234</v>
       </c>
@@ -13008,7 +13006,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>373</v>
       </c>
@@ -13031,7 +13029,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>373</v>
       </c>
@@ -13057,7 +13055,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -13083,7 +13081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -13109,7 +13107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>539</v>
       </c>
@@ -13135,7 +13133,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>542</v>
       </c>
@@ -13161,7 +13159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>542</v>
       </c>
@@ -13187,7 +13185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -13213,7 +13211,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -13239,7 +13237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>246</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -13291,7 +13289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>551</v>
       </c>
@@ -13317,7 +13315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>98</v>
       </c>
@@ -13343,7 +13341,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>98</v>
       </c>
@@ -13369,7 +13367,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -13395,7 +13393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -13421,7 +13419,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>551</v>
       </c>
@@ -13447,7 +13445,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>98</v>
       </c>
@@ -13473,7 +13471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>572</v>
       </c>
@@ -13499,7 +13497,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>98</v>
       </c>
@@ -13525,7 +13523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>373</v>
       </c>
@@ -13551,13 +13549,16 @@
         <v>577</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>190</v>
       </c>
       <c r="B215" t="s">
         <v>578</v>
       </c>
+      <c r="C215">
+        <v>1876</v>
+      </c>
       <c r="D215" t="s">
         <v>579</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>190</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>583</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>167</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>187</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>592</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>373</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>601</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>516</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>516</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>98</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>98</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>470</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>167</v>
       </c>
@@ -13975,7 +13976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>167</v>
       </c>
@@ -14001,7 +14002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>98</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>167</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>868</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>373</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>373</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -14486,7 +14487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -14532,7 +14533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>601</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>938</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>938</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>868</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>373</v>
       </c>
@@ -14682,7 +14683,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>601</v>
       </c>
@@ -14728,7 +14729,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>187</v>
       </c>
@@ -14754,7 +14755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -14780,7 +14781,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -14806,7 +14807,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>979</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>983</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>987</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>992</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>992</v>
       </c>
@@ -14936,7 +14937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>992</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>987</v>
       </c>
@@ -14985,7 +14986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>992</v>
       </c>
@@ -15011,7 +15012,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>992</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>992</v>
       </c>
@@ -15063,7 +15064,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -15089,7 +15090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>516</v>
       </c>
@@ -15115,7 +15116,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1024</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1029</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>592</v>
       </c>
@@ -15187,7 +15188,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>987</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>987</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>987</v>
       </c>
@@ -15265,7 +15266,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>987</v>
       </c>
@@ -15291,7 +15292,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>992</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>992</v>
       </c>
@@ -15343,7 +15344,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>992</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>987</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>992</v>
       </c>
@@ -15447,7 +15448,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1070</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>167</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>167</v>
       </c>
@@ -15525,7 +15526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1080</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1080</v>
       </c>
@@ -15574,7 +15575,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>868</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1080</v>
       </c>
@@ -15626,7 +15627,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>987</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1080</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1080</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1080</v>
       </c>
@@ -15730,7 +15731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1080</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1080</v>
       </c>
@@ -15782,7 +15783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1080</v>
       </c>
@@ -15805,7 +15806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1120</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1124</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1080</v>
       </c>
@@ -15883,7 +15884,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1080</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1135</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1080</v>
       </c>
@@ -15955,7 +15956,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1140</v>
       </c>
@@ -15981,7 +15982,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1145</v>
       </c>
@@ -16007,7 +16008,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>992</v>
       </c>
@@ -16111,7 +16112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>992</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>992</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>992</v>
       </c>
@@ -16189,7 +16190,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>992</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>992</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>592</v>
       </c>
@@ -16264,7 +16265,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>592</v>
       </c>
@@ -16290,7 +16291,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>592</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>18</v>
       </c>
@@ -16342,7 +16343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>18</v>
       </c>
@@ -16365,7 +16366,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1197</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1145</v>
       </c>
@@ -16417,7 +16418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>237</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>237</v>
       </c>
@@ -16469,7 +16470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>187</v>
       </c>
@@ -16495,7 +16496,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1215</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1219</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>167</v>
       </c>
@@ -16570,7 +16571,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>167</v>
       </c>
@@ -16596,7 +16597,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>234</v>
       </c>
@@ -16619,7 +16620,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1080</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1080</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>373</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>373</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>992</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>992</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>987</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>992</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1259</v>
       </c>
@@ -16847,7 +16848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>987</v>
       </c>
@@ -16873,7 +16874,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1267</v>
       </c>
@@ -16899,7 +16900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1267</v>
       </c>
@@ -16922,7 +16923,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>868</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>868</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1197</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>868</v>
       </c>
@@ -17023,7 +17024,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>868</v>
       </c>
@@ -17046,7 +17047,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>992</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>992</v>
       </c>
@@ -17098,7 +17099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -17121,7 +17122,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -17147,7 +17148,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>592</v>
       </c>
@@ -17199,7 +17200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>592</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>592</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>516</v>
       </c>
@@ -17277,7 +17278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>167</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1322</v>
       </c>
@@ -17326,7 +17327,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>234</v>
       </c>
@@ -17352,7 +17353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1328</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1332</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1336</v>
       </c>
@@ -17430,7 +17431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -17508,7 +17509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>11</v>
       </c>
@@ -17534,7 +17535,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>868</v>
       </c>
@@ -17586,7 +17587,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>868</v>
       </c>
@@ -17612,7 +17613,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -17635,7 +17636,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>237</v>
       </c>
@@ -17661,7 +17662,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>237</v>
       </c>
@@ -17687,7 +17688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>237</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1377</v>
       </c>
@@ -17736,7 +17737,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>187</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>187</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>592</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>592</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>90</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>167</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>167</v>
       </c>
@@ -17918,7 +17919,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>167</v>
       </c>
@@ -17944,7 +17945,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>167</v>
       </c>
@@ -17970,7 +17971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>167</v>
       </c>
@@ -17996,7 +17997,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>167</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1417</v>
       </c>
@@ -18042,7 +18043,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -18068,7 +18069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -18120,7 +18121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -18146,7 +18147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -18172,7 +18173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>987</v>
       </c>
@@ -18198,7 +18199,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>237</v>
       </c>
@@ -18224,7 +18225,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>237</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1445</v>
       </c>
@@ -18270,7 +18271,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1449</v>
       </c>
@@ -18296,7 +18297,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1449</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1456</v>
       </c>
@@ -18348,7 +18349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1460</v>
       </c>
@@ -18368,7 +18369,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1460</v>
       </c>
@@ -18391,7 +18392,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1460</v>
       </c>
@@ -18411,7 +18412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1377</v>
       </c>
@@ -18434,7 +18435,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>592</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1377</v>
       </c>
@@ -18483,7 +18484,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1474</v>
       </c>
@@ -18506,7 +18507,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1474</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1481</v>
       </c>
@@ -18549,7 +18550,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1267</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1489</v>
       </c>
@@ -18598,7 +18599,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1492</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1496</v>
       </c>
@@ -18647,7 +18648,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1267</v>
       </c>
@@ -18670,7 +18671,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1140</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1507</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1507</v>
       </c>
@@ -18742,7 +18743,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>987</v>
       </c>
@@ -18768,7 +18769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1267</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>18</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>18</v>
       </c>
@@ -18843,7 +18844,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -18895,7 +18896,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1533</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1538</v>
       </c>
@@ -18947,7 +18948,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1544</v>
       </c>
@@ -18970,7 +18971,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1547</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1553</v>
       </c>
@@ -19022,7 +19023,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1544</v>
       </c>
@@ -19045,7 +19046,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1544</v>
       </c>
@@ -19071,7 +19072,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1563</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1567</v>
       </c>
@@ -19123,7 +19124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1571</v>
       </c>
@@ -19149,7 +19150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1575</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1575</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1575</v>
       </c>
@@ -19227,7 +19228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1533</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1533</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1596</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1600</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1604</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1608</v>
       </c>
@@ -19377,7 +19378,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1614</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1620</v>
       </c>
@@ -19429,7 +19430,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1624</v>
       </c>
@@ -19455,7 +19456,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1629</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1629</v>
       </c>
@@ -19507,7 +19508,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1620</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1620</v>
       </c>
@@ -19559,7 +19560,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1642</v>
       </c>
@@ -19585,7 +19586,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1642</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1650</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1654</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1654</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1660</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1664</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1660</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1660</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1675</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1675</v>
       </c>
@@ -19842,7 +19843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1675</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1675</v>
       </c>
@@ -19894,7 +19895,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1692</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1692</v>
       </c>
@@ -19946,7 +19947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1660</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1660</v>
       </c>
@@ -19998,7 +19999,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1660</v>
       </c>
@@ -20024,7 +20025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1708</v>
       </c>
@@ -20047,7 +20048,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1708</v>
       </c>
@@ -20073,7 +20074,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1708</v>
       </c>
@@ -20099,7 +20100,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1720</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1726</v>
       </c>
@@ -20151,7 +20152,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1730</v>
       </c>
@@ -20177,7 +20178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1708</v>
       </c>
@@ -20203,7 +20204,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1708</v>
       </c>
@@ -20226,7 +20227,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1720</v>
       </c>
@@ -20252,7 +20253,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1660</v>
       </c>
@@ -20278,7 +20279,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1660</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1660</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1708</v>
       </c>
@@ -20356,7 +20357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1720</v>
       </c>
@@ -20382,7 +20383,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1660</v>
       </c>
@@ -20408,7 +20409,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1765</v>
       </c>
@@ -20434,7 +20435,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1769</v>
       </c>
@@ -20460,7 +20461,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1720</v>
       </c>
@@ -20486,7 +20487,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1660</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1675</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1720</v>
       </c>
@@ -20561,7 +20562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1660</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1720</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1708</v>
       </c>
@@ -20633,7 +20634,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1708</v>
       </c>
@@ -20656,7 +20657,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1708</v>
       </c>
@@ -20682,7 +20683,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1805</v>
       </c>
@@ -20708,7 +20709,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>1811</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>1815</v>
       </c>
@@ -20760,7 +20761,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1820</v>
       </c>
@@ -20786,7 +20787,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1826</v>
       </c>
@@ -20812,7 +20813,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1832</v>
       </c>
@@ -20838,7 +20839,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1838</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1815</v>
       </c>
@@ -20890,7 +20891,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1845</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1851</v>
       </c>
@@ -20942,7 +20943,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1851</v>
       </c>
@@ -20968,7 +20969,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1815</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1863</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1867</v>
       </c>
@@ -21046,7 +21047,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1845</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1875</v>
       </c>
@@ -21098,7 +21099,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1879</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1883</v>
       </c>
@@ -21150,7 +21151,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1887</v>
       </c>
@@ -21176,7 +21177,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1805</v>
       </c>
@@ -21202,7 +21203,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1838</v>
       </c>
@@ -21228,7 +21229,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1896</v>
       </c>
@@ -21254,7 +21255,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1902</v>
       </c>
@@ -21280,7 +21281,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1906</v>
       </c>
@@ -21306,7 +21307,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1911</v>
       </c>
@@ -21332,7 +21333,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1915</v>
       </c>
@@ -21355,7 +21356,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1915</v>
       </c>
@@ -21381,7 +21382,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1851</v>
       </c>
@@ -21407,7 +21408,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1875</v>
       </c>
@@ -21433,7 +21434,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1928</v>
       </c>
@@ -21459,7 +21460,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1928</v>
       </c>
@@ -21485,7 +21486,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1815</v>
       </c>
@@ -21511,7 +21512,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1938</v>
       </c>
@@ -21534,7 +21535,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1938</v>
       </c>
@@ -21560,7 +21561,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1938</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1938</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1938</v>
       </c>
@@ -21638,7 +21639,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1954</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1959</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1963</v>
       </c>
@@ -21716,7 +21717,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1967</v>
       </c>
@@ -21742,7 +21743,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1963</v>
       </c>
@@ -21768,7 +21769,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1974</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1979</v>
       </c>
@@ -21820,7 +21821,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1985</v>
       </c>
@@ -21846,7 +21847,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1985</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1985</v>
       </c>
@@ -21898,7 +21899,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1985</v>
       </c>
@@ -21924,7 +21925,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>2000</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>2007</v>
       </c>
@@ -21976,7 +21977,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>2011</v>
       </c>
@@ -22002,7 +22003,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>2016</v>
       </c>
@@ -22028,7 +22029,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2007</v>
       </c>
@@ -22054,7 +22055,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2022</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>2027</v>
       </c>
@@ -22106,7 +22107,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>2022</v>
       </c>
@@ -22132,7 +22133,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>2027</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>2037</v>
       </c>
@@ -22184,7 +22185,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>2043</v>
       </c>
@@ -22210,7 +22211,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>2050</v>
       </c>
@@ -22236,7 +22237,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>2054</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>2037</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>2060</v>
       </c>
@@ -22314,7 +22315,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>2066</v>
       </c>
@@ -22340,7 +22341,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>2071</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>2077</v>
       </c>
@@ -22392,7 +22393,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>2081</v>
       </c>
@@ -22418,7 +22419,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>2085</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>2091</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>2095</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>2099</v>
       </c>
@@ -22522,7 +22523,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>2103</v>
       </c>
@@ -22548,7 +22549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>2099</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>2103</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>2103</v>
       </c>
@@ -22623,7 +22624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>2119</v>
       </c>
@@ -22649,7 +22650,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>2123</v>
       </c>
@@ -22675,7 +22676,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>2127</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>2119</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>2127</v>
       </c>
@@ -22744,7 +22745,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>2119</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>2119</v>
       </c>
@@ -22793,7 +22794,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>2123</v>
       </c>
@@ -22819,7 +22820,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>2147</v>
       </c>
@@ -22845,7 +22846,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>2151</v>
       </c>
@@ -22871,7 +22872,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>2151</v>
       </c>
@@ -22897,7 +22898,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>2119</v>
       </c>
@@ -22920,7 +22921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>2119</v>
       </c>
@@ -22943,7 +22944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>2164</v>
       </c>
@@ -22966,7 +22967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>2168</v>
       </c>
@@ -22992,7 +22993,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>2173</v>
       </c>
@@ -23015,7 +23016,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>2177</v>
       </c>
@@ -23041,7 +23042,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>2182</v>
       </c>
@@ -23067,7 +23068,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>2187</v>
       </c>
@@ -23093,7 +23094,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>2190</v>
       </c>
@@ -23119,7 +23120,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>2195</v>
       </c>
@@ -23145,7 +23146,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>2199</v>
       </c>
@@ -23171,7 +23172,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>2202</v>
       </c>
@@ -23197,7 +23198,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>2199</v>
       </c>
@@ -23223,13 +23224,16 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>2207</v>
       </c>
       <c r="B596" t="s">
         <v>2208</v>
       </c>
+      <c r="C596">
+        <v>1908</v>
+      </c>
       <c r="D596" t="s">
         <v>2208</v>
       </c>
@@ -23243,7 +23247,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>2207</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>2215</v>
       </c>
@@ -23295,7 +23299,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>2219</v>
       </c>
@@ -23321,7 +23325,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>2222</v>
       </c>
@@ -23347,7 +23351,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>2224</v>
       </c>
@@ -23373,7 +23377,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>2228</v>
       </c>
@@ -23399,7 +23403,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>2231</v>
       </c>
@@ -23425,7 +23429,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>2233</v>
       </c>
@@ -23448,7 +23452,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>2228</v>
       </c>
@@ -23474,7 +23478,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>2241</v>
       </c>
@@ -23500,7 +23504,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>2244</v>
       </c>
@@ -23526,7 +23530,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>2249</v>
       </c>
@@ -23552,7 +23556,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>2249</v>
       </c>
@@ -23578,7 +23582,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>2244</v>
       </c>
@@ -23604,7 +23608,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>2263</v>
       </c>
@@ -23630,7 +23634,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>2269</v>
       </c>
@@ -23656,7 +23660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>2273</v>
       </c>
@@ -23679,7 +23683,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>2277</v>
       </c>
@@ -23705,7 +23709,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>2284</v>
       </c>
@@ -23731,7 +23735,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>2244</v>
       </c>
@@ -23757,7 +23761,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>2293</v>
       </c>
@@ -23783,7 +23787,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>2299</v>
       </c>
@@ -23809,7 +23813,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>2305</v>
       </c>
@@ -23835,7 +23839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>2309</v>
       </c>
@@ -23861,7 +23865,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>2315</v>
       </c>
@@ -23887,7 +23891,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>2319</v>
       </c>
@@ -23913,7 +23917,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>2319</v>
       </c>
@@ -23936,7 +23940,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>2273</v>
       </c>
@@ -23962,7 +23966,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>2334</v>
       </c>
@@ -23985,7 +23989,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>2337</v>
       </c>
@@ -24011,7 +24015,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>2341</v>
       </c>
@@ -24037,7 +24041,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>2337</v>
       </c>
@@ -24063,7 +24067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>2337</v>
       </c>
@@ -24089,7 +24093,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2337</v>
       </c>
@@ -24115,7 +24119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>2337</v>
       </c>
@@ -24138,7 +24142,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>2337</v>
       </c>
@@ -24164,7 +24168,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>2337</v>
       </c>
@@ -24190,7 +24194,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2337</v>
       </c>
@@ -24213,7 +24217,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2341</v>
       </c>
@@ -24239,7 +24243,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2341</v>
       </c>
@@ -24265,7 +24269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2341</v>
       </c>
@@ -24291,7 +24295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2337</v>
       </c>
@@ -24317,7 +24321,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>2337</v>
       </c>
@@ -24343,7 +24347,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>2337</v>
       </c>
@@ -24369,7 +24373,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>2337</v>
       </c>
@@ -24395,7 +24399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1538</v>
       </c>
@@ -24421,7 +24425,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1538</v>
       </c>
@@ -24447,7 +24451,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>2341</v>
       </c>
@@ -24473,7 +24477,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>2400</v>
       </c>
@@ -24499,7 +24503,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>2405</v>
       </c>
@@ -24525,7 +24529,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>2409</v>
       </c>
@@ -24551,7 +24555,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>2341</v>
       </c>
@@ -24577,7 +24581,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>2341</v>
       </c>
@@ -24603,7 +24607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>2419</v>
       </c>
@@ -24629,7 +24633,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>2423</v>
       </c>
@@ -24655,7 +24659,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>2428</v>
       </c>
@@ -24681,7 +24685,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>2432</v>
       </c>
@@ -24707,7 +24711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>2428</v>
       </c>
@@ -24733,7 +24737,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>2428</v>
       </c>
@@ -24759,7 +24763,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>2443</v>
       </c>
@@ -24785,7 +24789,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>2337</v>
       </c>
@@ -24811,7 +24815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>2432</v>
       </c>
@@ -24834,7 +24838,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1538</v>
       </c>
@@ -24860,7 +24864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>2400</v>
       </c>
@@ -24886,7 +24890,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>2461</v>
       </c>
@@ -24912,7 +24916,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2466</v>
       </c>
@@ -24938,7 +24942,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2469</v>
       </c>
@@ -24964,7 +24968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>2473</v>
       </c>
@@ -24990,7 +24994,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>2432</v>
       </c>
@@ -25016,7 +25020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>2480</v>
       </c>
@@ -25042,7 +25046,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>2484</v>
       </c>
@@ -25065,7 +25069,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>2488</v>
       </c>
@@ -25091,7 +25095,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>2492</v>
       </c>
@@ -25114,7 +25118,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>2337</v>
       </c>
@@ -25140,7 +25144,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>2337</v>
       </c>
@@ -25166,7 +25170,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>2503</v>
       </c>
@@ -25192,7 +25196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>2507</v>
       </c>
@@ -25218,7 +25222,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2512</v>
       </c>
@@ -25244,7 +25248,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1538</v>
       </c>
@@ -25267,7 +25271,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2521</v>
       </c>
@@ -25293,7 +25297,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>2503</v>
       </c>
@@ -25319,7 +25323,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2341</v>
       </c>
@@ -25342,7 +25346,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2532</v>
       </c>
@@ -25368,7 +25372,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2538</v>
       </c>
@@ -25394,7 +25398,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1538</v>
       </c>
@@ -25420,7 +25424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>2545</v>
       </c>
@@ -25446,7 +25450,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>2550</v>
       </c>
